--- a/BlogSystem/Document/CnblogsXp.xlsx
+++ b/BlogSystem/Document/CnblogsXp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="2850" windowWidth="18315" windowHeight="11430" firstSheet="10" activeTab="17"/>
+    <workbookView xWindow="1185" yWindow="2850" windowWidth="18315" windowHeight="11430" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Article" sheetId="1" r:id="rId1"/>
@@ -920,7 +920,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2785" uniqueCount="568">
   <si>
     <t>正则表达</t>
     <phoneticPr fontId="30" type="noConversion"/>
@@ -3353,6 +3353,40 @@
       </rPr>
       <t>Account</t>
     </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>订阅难易度</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>ArticleLevel</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>订阅分类</t>
+  </si>
+  <si>
+    <t>Catalog</t>
+  </si>
+  <si>
+    <t>ContainTag</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>AntiTag</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>过滤标签</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>订阅标签</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -3956,7 +3990,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4331,6 +4365,9 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5143,31 +5180,31 @@
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="131" t="s">
         <v>307</v>
       </c>
-      <c r="D2" s="130"/>
+      <c r="D2" s="131"/>
       <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="131" t="s">
+      <c r="F2" s="132" t="s">
         <v>306</v>
       </c>
-      <c r="G2" s="132"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="127">
+      <c r="L2" s="128">
         <v>1</v>
       </c>
-      <c r="M2" s="127"/>
+      <c r="M2" s="128"/>
       <c r="AA2" s="5" t="s">
         <v>53</v>
       </c>
@@ -5218,20 +5255,20 @@
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="128" t="s">
+      <c r="I3" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="129"/>
+      <c r="J3" s="130"/>
       <c r="AA3" s="5" t="s">
         <v>54</v>
       </c>
@@ -5283,135 +5320,135 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="137" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="141" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="151" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="154" t="s">
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="147" t="s">
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="140" t="s">
+      <c r="O6" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140" t="s">
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="148" t="s">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="149"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="148" t="s">
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="138" t="s">
+      <c r="X6" s="151"/>
+      <c r="Y6" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="Z6" s="138" t="s">
+      <c r="Z6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="140" t="s">
+      <c r="AA6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="140" t="s">
+      <c r="AB6" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="140" t="s">
+      <c r="AC6" s="141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="144"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -5442,11 +5479,11 @@
       <c r="X7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
@@ -6707,31 +6744,31 @@
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="160" t="s">
+      <c r="C2" s="161" t="s">
         <v>236</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="164" t="s">
+      <c r="F2" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="132"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="127">
+      <c r="L2" s="128">
         <v>1</v>
       </c>
-      <c r="M2" s="127"/>
+      <c r="M2" s="128"/>
       <c r="AA2" s="5" t="s">
         <v>53</v>
       </c>
@@ -6782,20 +6819,20 @@
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="165" t="s">
+      <c r="I3" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="129"/>
+      <c r="J3" s="130"/>
       <c r="AA3" s="5" t="s">
         <v>54</v>
       </c>
@@ -6847,135 +6884,135 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="137" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="141" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="151" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="154" t="s">
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="147" t="s">
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="140" t="s">
+      <c r="O6" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140" t="s">
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="148" t="s">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="149"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="148" t="s">
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="138" t="s">
+      <c r="X6" s="151"/>
+      <c r="Y6" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="138" t="s">
+      <c r="Z6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="140" t="s">
+      <c r="AA6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="140" t="s">
+      <c r="AB6" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="140" t="s">
+      <c r="AC6" s="141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="144"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -7006,11 +7043,11 @@
       <c r="X7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
@@ -7976,31 +8013,31 @@
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="160" t="s">
+      <c r="C2" s="161" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="160" t="s">
+      <c r="F2" s="161" t="s">
         <v>238</v>
       </c>
-      <c r="G2" s="132"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="127">
+      <c r="L2" s="128">
         <v>1</v>
       </c>
-      <c r="M2" s="127"/>
+      <c r="M2" s="128"/>
       <c r="AA2" s="5" t="s">
         <v>53</v>
       </c>
@@ -8051,22 +8088,22 @@
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="161" t="s">
+      <c r="C3" s="162" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="127"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="162" t="s">
+      <c r="I3" s="163" t="s">
         <v>213</v>
       </c>
-      <c r="J3" s="129"/>
+      <c r="J3" s="130"/>
       <c r="AA3" s="5" t="s">
         <v>54</v>
       </c>
@@ -8118,135 +8155,135 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="137" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="141" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="151" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="154" t="s">
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="147" t="s">
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="140" t="s">
+      <c r="O6" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140" t="s">
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="148" t="s">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="149"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="148" t="s">
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="138" t="s">
+      <c r="X6" s="151"/>
+      <c r="Y6" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="138" t="s">
+      <c r="Z6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="140" t="s">
+      <c r="AA6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="140" t="s">
+      <c r="AB6" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="140" t="s">
+      <c r="AC6" s="141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="144"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -8277,11 +8314,11 @@
       <c r="X7" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
     </row>
     <row r="8" spans="1:48" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="51"/>
@@ -8942,31 +8979,31 @@
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="163" t="s">
+      <c r="C2" s="164" t="s">
         <v>218</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="163" t="s">
+      <c r="F2" s="164" t="s">
         <v>217</v>
       </c>
-      <c r="G2" s="132"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="127">
+      <c r="L2" s="128">
         <v>1</v>
       </c>
-      <c r="M2" s="127"/>
+      <c r="M2" s="128"/>
       <c r="AA2" s="5" t="s">
         <v>53</v>
       </c>
@@ -9017,20 +9054,20 @@
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="157" t="s">
+      <c r="I3" s="158" t="s">
         <v>545</v>
       </c>
-      <c r="J3" s="129"/>
+      <c r="J3" s="130"/>
       <c r="AA3" s="5" t="s">
         <v>54</v>
       </c>
@@ -9082,135 +9119,135 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="137" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="141" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="151" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="154" t="s">
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="147" t="s">
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="140" t="s">
+      <c r="O6" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140" t="s">
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="148" t="s">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="149"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="148" t="s">
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="138" t="s">
+      <c r="X6" s="151"/>
+      <c r="Y6" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="Z6" s="138" t="s">
+      <c r="Z6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="140" t="s">
+      <c r="AA6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="140" t="s">
+      <c r="AB6" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="140" t="s">
+      <c r="AC6" s="141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="144"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -9241,11 +9278,11 @@
       <c r="X7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
@@ -10392,31 +10429,31 @@
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="156" t="s">
+      <c r="C2" s="157" t="s">
         <v>543</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="156" t="s">
+      <c r="F2" s="157" t="s">
         <v>544</v>
       </c>
-      <c r="G2" s="132"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="127">
+      <c r="L2" s="128">
         <v>1</v>
       </c>
-      <c r="M2" s="127"/>
+      <c r="M2" s="128"/>
       <c r="AA2" s="5" t="s">
         <v>53</v>
       </c>
@@ -10467,20 +10504,20 @@
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="157" t="s">
+      <c r="I3" s="158" t="s">
         <v>546</v>
       </c>
-      <c r="J3" s="129"/>
+      <c r="J3" s="130"/>
       <c r="AA3" s="5" t="s">
         <v>54</v>
       </c>
@@ -10532,135 +10569,135 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="137" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="141" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="151" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="154" t="s">
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="147" t="s">
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="140" t="s">
+      <c r="O6" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140" t="s">
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="148" t="s">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="149"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="148" t="s">
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="138" t="s">
+      <c r="X6" s="151"/>
+      <c r="Y6" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="Z6" s="138" t="s">
+      <c r="Z6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="140" t="s">
+      <c r="AA6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="140" t="s">
+      <c r="AB6" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="140" t="s">
+      <c r="AC6" s="141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="144"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -10691,11 +10728,11 @@
       <c r="X7" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
@@ -11727,8 +11764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -11759,31 +11796,31 @@
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="156" t="s">
+      <c r="C2" s="157" t="s">
         <v>433</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="163" t="s">
+      <c r="F2" s="164" t="s">
         <v>166</v>
       </c>
-      <c r="G2" s="132"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="127">
+      <c r="L2" s="128">
         <v>1</v>
       </c>
-      <c r="M2" s="127"/>
+      <c r="M2" s="128"/>
       <c r="AA2" s="5" t="s">
         <v>53</v>
       </c>
@@ -11834,20 +11871,20 @@
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="162" t="s">
+      <c r="I3" s="163" t="s">
         <v>168</v>
       </c>
-      <c r="J3" s="129"/>
+      <c r="J3" s="130"/>
       <c r="AA3" s="5" t="s">
         <v>54</v>
       </c>
@@ -11899,135 +11936,135 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="137" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="141" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="151" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="154" t="s">
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="147" t="s">
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="140" t="s">
+      <c r="O6" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140" t="s">
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="148" t="s">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="149"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="148" t="s">
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="138" t="s">
+      <c r="X6" s="151"/>
+      <c r="Y6" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="138" t="s">
+      <c r="Z6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="140" t="s">
+      <c r="AA6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="140" t="s">
+      <c r="AB6" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="140" t="s">
+      <c r="AC6" s="141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="144"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -12058,11 +12095,11 @@
       <c r="X7" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
@@ -12368,14 +12405,24 @@
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="2"/>
+      <c r="C16" s="127" t="s">
+        <v>558</v>
+      </c>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127" t="s">
+        <v>559</v>
+      </c>
+      <c r="G16" s="127" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>560</v>
+      </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>561</v>
+      </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -12398,14 +12445,22 @@
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>562</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>561</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -12428,11 +12483,17 @@
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="93" t="s">
+        <v>567</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="F18" s="93" t="s">
+        <v>564</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -12458,11 +12519,17 @@
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="93" t="s">
+        <v>566</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="F19" s="93" t="s">
+        <v>565</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -13207,31 +13274,31 @@
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="166" t="s">
+      <c r="C2" s="167" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="167" t="s">
+      <c r="F2" s="168" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="132"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="127">
+      <c r="L2" s="128">
         <v>1</v>
       </c>
-      <c r="M2" s="127"/>
+      <c r="M2" s="128"/>
       <c r="AA2" s="5" t="s">
         <v>53</v>
       </c>
@@ -13282,20 +13349,20 @@
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="168" t="s">
+      <c r="I3" s="169" t="s">
         <v>227</v>
       </c>
-      <c r="J3" s="129"/>
+      <c r="J3" s="130"/>
       <c r="AA3" s="5" t="s">
         <v>54</v>
       </c>
@@ -13347,135 +13414,135 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="137" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="141" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="151" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="154" t="s">
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="147" t="s">
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="140" t="s">
+      <c r="O6" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140" t="s">
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="148" t="s">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="149"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="148" t="s">
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="138" t="s">
+      <c r="X6" s="151"/>
+      <c r="Y6" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="138" t="s">
+      <c r="Z6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="140" t="s">
+      <c r="AA6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="140" t="s">
+      <c r="AB6" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="140" t="s">
+      <c r="AC6" s="141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="144"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -13506,11 +13573,11 @@
       <c r="X7" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
@@ -14978,7 +15045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -15009,31 +15076,31 @@
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="169" t="s">
+      <c r="C2" s="170" t="s">
         <v>309</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="169" t="s">
+      <c r="F2" s="170" t="s">
         <v>309</v>
       </c>
-      <c r="G2" s="132"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>325</v>
       </c>
-      <c r="J2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="127">
+      <c r="L2" s="128">
         <v>1</v>
       </c>
-      <c r="M2" s="127"/>
+      <c r="M2" s="128"/>
       <c r="Z2" s="5" t="s">
         <v>53</v>
       </c>
@@ -15087,22 +15154,22 @@
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="161" t="s">
+      <c r="C3" s="162" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="127"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="170" t="s">
+      <c r="I3" s="171" t="s">
         <v>167</v>
       </c>
-      <c r="J3" s="129"/>
+      <c r="J3" s="130"/>
       <c r="Z3" s="5" t="s">
         <v>54</v>
       </c>
@@ -15155,135 +15222,135 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="137" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="141" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="151" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="154" t="s">
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="147" t="s">
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="140" t="s">
+      <c r="O6" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140" t="s">
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="148" t="s">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="149"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="148" t="s">
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="138" t="s">
+      <c r="X6" s="151"/>
+      <c r="Y6" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="138" t="s">
+      <c r="Z6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="140" t="s">
+      <c r="AA6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="140" t="s">
+      <c r="AB6" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="140" t="s">
+      <c r="AC6" s="141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="144"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -15314,11 +15381,11 @@
       <c r="X7" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
@@ -16514,31 +16581,31 @@
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="156" t="s">
+      <c r="C2" s="157" t="s">
         <v>427</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="156" t="s">
+      <c r="F2" s="157" t="s">
         <v>427</v>
       </c>
-      <c r="G2" s="132"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>325</v>
       </c>
-      <c r="J2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="127">
+      <c r="L2" s="128">
         <v>1</v>
       </c>
-      <c r="M2" s="127"/>
+      <c r="M2" s="128"/>
       <c r="Z2" s="5" t="s">
         <v>53</v>
       </c>
@@ -16592,22 +16659,22 @@
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="161" t="s">
+      <c r="C3" s="162" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="127"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="170" t="s">
+      <c r="I3" s="171" t="s">
         <v>167</v>
       </c>
-      <c r="J3" s="129"/>
+      <c r="J3" s="130"/>
       <c r="Z3" s="5" t="s">
         <v>54</v>
       </c>
@@ -16660,135 +16727,135 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="137" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="141" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="151" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="154" t="s">
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="147" t="s">
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="140" t="s">
+      <c r="O6" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140" t="s">
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="148" t="s">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="149"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="148" t="s">
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="138" t="s">
+      <c r="X6" s="151"/>
+      <c r="Y6" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="138" t="s">
+      <c r="Z6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="140" t="s">
+      <c r="AA6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="140" t="s">
+      <c r="AB6" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="140" t="s">
+      <c r="AC6" s="141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="144"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -16819,11 +16886,11 @@
       <c r="X7" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
@@ -17943,31 +18010,31 @@
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="131" t="s">
         <v>418</v>
       </c>
-      <c r="D2" s="130"/>
+      <c r="D2" s="131"/>
       <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="156" t="s">
+      <c r="F2" s="157" t="s">
         <v>418</v>
       </c>
-      <c r="G2" s="132"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="127">
+      <c r="L2" s="128">
         <v>1</v>
       </c>
-      <c r="M2" s="127"/>
+      <c r="M2" s="128"/>
       <c r="AA2" s="5" t="s">
         <v>53</v>
       </c>
@@ -18018,20 +18085,20 @@
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="157" t="s">
+      <c r="I3" s="158" t="s">
         <v>419</v>
       </c>
-      <c r="J3" s="129"/>
+      <c r="J3" s="130"/>
       <c r="AA3" s="5" t="s">
         <v>54</v>
       </c>
@@ -18083,135 +18150,135 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="137" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="141" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="151" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="154" t="s">
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="147" t="s">
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="140" t="s">
+      <c r="O6" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140" t="s">
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="148" t="s">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="149"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="148" t="s">
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="138" t="s">
+      <c r="X6" s="151"/>
+      <c r="Y6" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="138" t="s">
+      <c r="Z6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="140" t="s">
+      <c r="AA6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="140" t="s">
+      <c r="AB6" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="140" t="s">
+      <c r="AC6" s="141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="144"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -18242,11 +18309,11 @@
       <c r="X7" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
@@ -18823,31 +18890,31 @@
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="166" t="s">
+      <c r="C2" s="167" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="166" t="s">
+      <c r="F2" s="167" t="s">
         <v>272</v>
       </c>
-      <c r="G2" s="132"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="127">
+      <c r="L2" s="128">
         <v>1</v>
       </c>
-      <c r="M2" s="127"/>
+      <c r="M2" s="128"/>
       <c r="AA2" s="5" t="s">
         <v>53</v>
       </c>
@@ -18898,20 +18965,20 @@
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="168" t="s">
+      <c r="I3" s="169" t="s">
         <v>227</v>
       </c>
-      <c r="J3" s="129"/>
+      <c r="J3" s="130"/>
       <c r="AA3" s="5" t="s">
         <v>54</v>
       </c>
@@ -18963,135 +19030,135 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="137" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="141" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="151" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="154" t="s">
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="147" t="s">
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="140" t="s">
+      <c r="O6" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140" t="s">
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="148" t="s">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="149"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="148" t="s">
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="138" t="s">
+      <c r="X6" s="151"/>
+      <c r="Y6" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="138" t="s">
+      <c r="Z6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="140" t="s">
+      <c r="AA6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="140" t="s">
+      <c r="AB6" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="140" t="s">
+      <c r="AC6" s="141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="144"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -19122,11 +19189,11 @@
       <c r="X7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
@@ -20131,31 +20198,31 @@
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="171" t="s">
+      <c r="C2" s="172" t="s">
         <v>296</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="171" t="s">
+      <c r="F2" s="172" t="s">
         <v>289</v>
       </c>
-      <c r="G2" s="132"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>325</v>
       </c>
-      <c r="J2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="127">
+      <c r="L2" s="128">
         <v>1</v>
       </c>
-      <c r="M2" s="127"/>
+      <c r="M2" s="128"/>
       <c r="Z2" s="5" t="s">
         <v>53</v>
       </c>
@@ -20209,20 +20276,20 @@
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="172" t="s">
+      <c r="I3" s="173" t="s">
         <v>290</v>
       </c>
-      <c r="J3" s="129"/>
+      <c r="J3" s="130"/>
       <c r="AA3" s="5" t="s">
         <v>54</v>
       </c>
@@ -20274,135 +20341,135 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="137" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="141" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="151" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="154" t="s">
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="147" t="s">
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="140" t="s">
+      <c r="O6" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140" t="s">
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="148" t="s">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="149"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="148" t="s">
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="138" t="s">
+      <c r="X6" s="151"/>
+      <c r="Y6" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="138" t="s">
+      <c r="Z6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="140" t="s">
+      <c r="AA6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="140" t="s">
+      <c r="AB6" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="140" t="s">
+      <c r="AC6" s="141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="144"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -20433,11 +20500,11 @@
       <c r="X7" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
@@ -21478,31 +21545,31 @@
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="166" t="s">
+      <c r="C2" s="167" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="166" t="s">
+      <c r="F2" s="167" t="s">
         <v>234</v>
       </c>
-      <c r="G2" s="132"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="127">
+      <c r="L2" s="128">
         <v>1</v>
       </c>
-      <c r="M2" s="127"/>
+      <c r="M2" s="128"/>
       <c r="AA2" s="5" t="s">
         <v>53</v>
       </c>
@@ -21553,20 +21620,20 @@
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="168" t="s">
+      <c r="I3" s="169" t="s">
         <v>227</v>
       </c>
-      <c r="J3" s="129"/>
+      <c r="J3" s="130"/>
       <c r="AA3" s="5" t="s">
         <v>54</v>
       </c>
@@ -21618,135 +21685,135 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="137" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="141" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="151" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="154" t="s">
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="147" t="s">
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="140" t="s">
+      <c r="O6" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140" t="s">
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="148" t="s">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="149"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="148" t="s">
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="138" t="s">
+      <c r="X6" s="151"/>
+      <c r="Y6" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="138" t="s">
+      <c r="Z6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="140" t="s">
+      <c r="AA6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="140" t="s">
+      <c r="AB6" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="140" t="s">
+      <c r="AC6" s="141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="144"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -21777,11 +21844,11 @@
       <c r="X7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
@@ -22780,31 +22847,31 @@
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="173" t="s">
+      <c r="C2" s="174" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="173" t="s">
+      <c r="F2" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="132"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="127">
+      <c r="L2" s="128">
         <v>1</v>
       </c>
-      <c r="M2" s="127"/>
+      <c r="M2" s="128"/>
       <c r="AA2" s="5" t="s">
         <v>53</v>
       </c>
@@ -22855,22 +22922,22 @@
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="174" t="s">
+      <c r="C3" s="175" t="s">
         <v>302</v>
       </c>
-      <c r="D3" s="127"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="159" t="s">
+      <c r="I3" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="129"/>
+      <c r="J3" s="130"/>
       <c r="AA3" s="5" t="s">
         <v>54</v>
       </c>
@@ -22922,135 +22989,135 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="137" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="141" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="151" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="154" t="s">
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="147" t="s">
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="140" t="s">
+      <c r="O6" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140" t="s">
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="148" t="s">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="149"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="148" t="s">
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="138" t="s">
+      <c r="X6" s="151"/>
+      <c r="Y6" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="Z6" s="138" t="s">
+      <c r="Z6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="140" t="s">
+      <c r="AA6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="140" t="s">
+      <c r="AB6" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="140" t="s">
+      <c r="AC6" s="141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="144"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -23081,11 +23148,11 @@
       <c r="X7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
@@ -24317,31 +24384,31 @@
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="156" t="s">
+      <c r="C2" s="157" t="s">
         <v>478</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="156" t="s">
+      <c r="F2" s="157" t="s">
         <v>478</v>
       </c>
-      <c r="G2" s="132"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="127">
+      <c r="L2" s="128">
         <v>1</v>
       </c>
-      <c r="M2" s="127"/>
+      <c r="M2" s="128"/>
       <c r="AA2" s="5" t="s">
         <v>53</v>
       </c>
@@ -24392,20 +24459,20 @@
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="174"/>
-      <c r="D3" s="127"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="157" t="s">
+      <c r="I3" s="158" t="s">
         <v>479</v>
       </c>
-      <c r="J3" s="129"/>
+      <c r="J3" s="130"/>
       <c r="AA3" s="5" t="s">
         <v>54</v>
       </c>
@@ -24457,135 +24524,135 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="137" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="141" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="151" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="154" t="s">
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="147" t="s">
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="140" t="s">
+      <c r="O6" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140" t="s">
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="148" t="s">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="149"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="148" t="s">
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="138" t="s">
+      <c r="X6" s="151"/>
+      <c r="Y6" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="138" t="s">
+      <c r="Z6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="140" t="s">
+      <c r="AA6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="140" t="s">
+      <c r="AB6" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="140" t="s">
+      <c r="AC6" s="141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="144"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -24616,11 +24683,11 @@
       <c r="X7" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
@@ -25533,31 +25600,31 @@
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="156" t="s">
+      <c r="C2" s="157" t="s">
         <v>484</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="156" t="s">
+      <c r="F2" s="157" t="s">
         <v>484</v>
       </c>
-      <c r="G2" s="132"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="127">
+      <c r="L2" s="128">
         <v>1</v>
       </c>
-      <c r="M2" s="127"/>
+      <c r="M2" s="128"/>
       <c r="AA2" s="5" t="s">
         <v>53</v>
       </c>
@@ -25608,20 +25675,20 @@
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="174"/>
-      <c r="D3" s="127"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="157" t="s">
+      <c r="I3" s="158" t="s">
         <v>485</v>
       </c>
-      <c r="J3" s="129"/>
+      <c r="J3" s="130"/>
       <c r="AA3" s="5" t="s">
         <v>54</v>
       </c>
@@ -25673,135 +25740,135 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="137" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="141" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="151" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="154" t="s">
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="147" t="s">
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="140" t="s">
+      <c r="O6" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140" t="s">
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="148" t="s">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="149"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="148" t="s">
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="138" t="s">
+      <c r="X6" s="151"/>
+      <c r="Y6" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="138" t="s">
+      <c r="Z6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="140" t="s">
+      <c r="AA6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="140" t="s">
+      <c r="AB6" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="140" t="s">
+      <c r="AC6" s="141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="144"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -25832,11 +25899,11 @@
       <c r="X7" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
@@ -26759,31 +26826,31 @@
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="175" t="s">
+      <c r="C2" s="176" t="s">
         <v>299</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="175" t="s">
+      <c r="F2" s="176" t="s">
         <v>300</v>
       </c>
-      <c r="G2" s="132"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="127">
+      <c r="L2" s="128">
         <v>1</v>
       </c>
-      <c r="M2" s="127"/>
+      <c r="M2" s="128"/>
       <c r="AA2" s="5" t="s">
         <v>53</v>
       </c>
@@ -26834,22 +26901,22 @@
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="174" t="s">
+      <c r="C3" s="175" t="s">
         <v>301</v>
       </c>
-      <c r="D3" s="127"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="159" t="s">
+      <c r="I3" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="129"/>
+      <c r="J3" s="130"/>
       <c r="AA3" s="5" t="s">
         <v>54</v>
       </c>
@@ -26901,135 +26968,135 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="137" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="141" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="151" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="154" t="s">
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="147" t="s">
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="140" t="s">
+      <c r="O6" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140" t="s">
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="148" t="s">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="149"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="148" t="s">
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="138" t="s">
+      <c r="X6" s="151"/>
+      <c r="Y6" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="Z6" s="138" t="s">
+      <c r="Z6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="140" t="s">
+      <c r="AA6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="140" t="s">
+      <c r="AB6" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="140" t="s">
+      <c r="AC6" s="141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="144"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -27060,11 +27127,11 @@
       <c r="X7" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
@@ -28197,31 +28264,31 @@
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="156" t="s">
+      <c r="C2" s="157" t="s">
         <v>336</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="156" t="s">
+      <c r="F2" s="157" t="s">
         <v>337</v>
       </c>
-      <c r="G2" s="132"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="127">
+      <c r="L2" s="128">
         <v>1</v>
       </c>
-      <c r="M2" s="127"/>
+      <c r="M2" s="128"/>
       <c r="AA2" s="5" t="s">
         <v>53</v>
       </c>
@@ -28272,20 +28339,20 @@
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="174"/>
-      <c r="D3" s="127"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="157" t="s">
+      <c r="I3" s="158" t="s">
         <v>338</v>
       </c>
-      <c r="J3" s="129"/>
+      <c r="J3" s="130"/>
       <c r="AA3" s="5" t="s">
         <v>54</v>
       </c>
@@ -28337,135 +28404,135 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="137" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="141" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="151" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="154" t="s">
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="147" t="s">
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="140" t="s">
+      <c r="O6" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140" t="s">
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="148" t="s">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="149"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="148" t="s">
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="138" t="s">
+      <c r="X6" s="151"/>
+      <c r="Y6" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="138" t="s">
+      <c r="Z6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="140" t="s">
+      <c r="AA6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="140" t="s">
+      <c r="AB6" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="140" t="s">
+      <c r="AC6" s="141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="144"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -28496,11 +28563,11 @@
       <c r="X7" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
@@ -29657,31 +29724,31 @@
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="156" t="s">
+      <c r="C2" s="157" t="s">
         <v>468</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="156" t="s">
+      <c r="F2" s="157" t="s">
         <v>468</v>
       </c>
-      <c r="G2" s="132"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>325</v>
       </c>
-      <c r="J2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="127">
+      <c r="L2" s="128">
         <v>1</v>
       </c>
-      <c r="M2" s="127"/>
+      <c r="M2" s="128"/>
       <c r="AA2" s="5" t="s">
         <v>53</v>
       </c>
@@ -29732,20 +29799,20 @@
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="174"/>
-      <c r="D3" s="127"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="157" t="s">
+      <c r="I3" s="158" t="s">
         <v>469</v>
       </c>
-      <c r="J3" s="129"/>
+      <c r="J3" s="130"/>
       <c r="AA3" s="5" t="s">
         <v>54</v>
       </c>
@@ -29797,135 +29864,135 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="137" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="141" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="151" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="154" t="s">
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="147" t="s">
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="140" t="s">
+      <c r="O6" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140" t="s">
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="148" t="s">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="149"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="148" t="s">
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="138" t="s">
+      <c r="X6" s="151"/>
+      <c r="Y6" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="138" t="s">
+      <c r="Z6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="140" t="s">
+      <c r="AA6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="140" t="s">
+      <c r="AB6" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="140" t="s">
+      <c r="AC6" s="141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="144"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -29956,11 +30023,11 @@
       <c r="X7" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
@@ -31085,31 +31152,31 @@
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="156" t="s">
+      <c r="C2" s="157" t="s">
         <v>513</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="156" t="s">
+      <c r="F2" s="157" t="s">
         <v>511</v>
       </c>
-      <c r="G2" s="132"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="127">
+      <c r="L2" s="128">
         <v>1</v>
       </c>
-      <c r="M2" s="127"/>
+      <c r="M2" s="128"/>
       <c r="AA2" s="5" t="s">
         <v>53</v>
       </c>
@@ -31160,20 +31227,20 @@
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="174"/>
-      <c r="D3" s="127"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="157" t="s">
+      <c r="I3" s="158" t="s">
         <v>504</v>
       </c>
-      <c r="J3" s="129"/>
+      <c r="J3" s="130"/>
       <c r="AA3" s="5" t="s">
         <v>54</v>
       </c>
@@ -31225,135 +31292,135 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="137" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="141" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="151" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="154" t="s">
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="147" t="s">
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="140" t="s">
+      <c r="O6" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140" t="s">
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="148" t="s">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="149"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="148" t="s">
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="138" t="s">
+      <c r="X6" s="151"/>
+      <c r="Y6" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="138" t="s">
+      <c r="Z6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="140" t="s">
+      <c r="AA6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="140" t="s">
+      <c r="AB6" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="140" t="s">
+      <c r="AC6" s="141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="144"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -31384,11 +31451,11 @@
       <c r="X7" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
@@ -32757,31 +32824,31 @@
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="156" t="s">
+      <c r="C2" s="157" t="s">
         <v>537</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="156" t="s">
+      <c r="F2" s="157" t="s">
         <v>542</v>
       </c>
-      <c r="G2" s="132"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="127">
+      <c r="L2" s="128">
         <v>1</v>
       </c>
-      <c r="M2" s="127"/>
+      <c r="M2" s="128"/>
       <c r="AA2" s="5" t="s">
         <v>53</v>
       </c>
@@ -32832,22 +32899,22 @@
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="176" t="s">
+      <c r="C3" s="177" t="s">
         <v>538</v>
       </c>
-      <c r="D3" s="127"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="157" t="s">
+      <c r="I3" s="158" t="s">
         <v>541</v>
       </c>
-      <c r="J3" s="129"/>
+      <c r="J3" s="130"/>
       <c r="AA3" s="5" t="s">
         <v>54</v>
       </c>
@@ -32899,135 +32966,135 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="137" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="141" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="151" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="154" t="s">
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="147" t="s">
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="140" t="s">
+      <c r="O6" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140" t="s">
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="148" t="s">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="149"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="148" t="s">
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="138" t="s">
+      <c r="X6" s="151"/>
+      <c r="Y6" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="138" t="s">
+      <c r="Z6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="140" t="s">
+      <c r="AA6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="140" t="s">
+      <c r="AB6" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="140" t="s">
+      <c r="AC6" s="141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="144"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -33058,11 +33125,11 @@
       <c r="X7" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
@@ -34172,682 +34239,682 @@
       </c>
     </row>
     <row r="12" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D12" s="182" t="s">
+      <c r="D12" s="183" t="s">
         <v>138</v>
       </c>
-      <c r="E12" s="182"/>
-      <c r="F12" s="182"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="182"/>
-      <c r="J12" s="182"/>
-      <c r="K12" s="182"/>
-      <c r="L12" s="182"/>
-      <c r="M12" s="182"/>
-      <c r="S12" s="182" t="s">
+      <c r="E12" s="183"/>
+      <c r="F12" s="183"/>
+      <c r="G12" s="183"/>
+      <c r="H12" s="183"/>
+      <c r="I12" s="183"/>
+      <c r="J12" s="183"/>
+      <c r="K12" s="183"/>
+      <c r="L12" s="183"/>
+      <c r="M12" s="183"/>
+      <c r="S12" s="183" t="s">
         <v>139</v>
       </c>
-      <c r="T12" s="182"/>
-      <c r="U12" s="182"/>
-      <c r="V12" s="182"/>
-      <c r="W12" s="182"/>
-      <c r="X12" s="182"/>
-      <c r="Y12" s="182"/>
-      <c r="Z12" s="182"/>
-      <c r="AA12" s="182"/>
-      <c r="AB12" s="182"/>
+      <c r="T12" s="183"/>
+      <c r="U12" s="183"/>
+      <c r="V12" s="183"/>
+      <c r="W12" s="183"/>
+      <c r="X12" s="183"/>
+      <c r="Y12" s="183"/>
+      <c r="Z12" s="183"/>
+      <c r="AA12" s="183"/>
+      <c r="AB12" s="183"/>
     </row>
     <row r="13" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D13" s="178" t="s">
+      <c r="D13" s="179" t="s">
         <v>215</v>
       </c>
-      <c r="E13" s="179"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="179"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="179"/>
-      <c r="J13" s="179"/>
-      <c r="K13" s="179"/>
-      <c r="L13" s="179"/>
-      <c r="M13" s="180"/>
-      <c r="S13" s="178" t="s">
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="180"/>
+      <c r="K13" s="180"/>
+      <c r="L13" s="180"/>
+      <c r="M13" s="181"/>
+      <c r="S13" s="179" t="s">
         <v>215</v>
       </c>
-      <c r="T13" s="179"/>
-      <c r="U13" s="179"/>
-      <c r="V13" s="179"/>
-      <c r="W13" s="179"/>
-      <c r="X13" s="179"/>
-      <c r="Y13" s="179"/>
-      <c r="Z13" s="179"/>
-      <c r="AA13" s="179"/>
-      <c r="AB13" s="180"/>
+      <c r="T13" s="180"/>
+      <c r="U13" s="180"/>
+      <c r="V13" s="180"/>
+      <c r="W13" s="180"/>
+      <c r="X13" s="180"/>
+      <c r="Y13" s="180"/>
+      <c r="Z13" s="180"/>
+      <c r="AA13" s="180"/>
+      <c r="AB13" s="181"/>
     </row>
     <row r="14" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D14" s="178" t="s">
+      <c r="D14" s="179" t="s">
         <v>214</v>
       </c>
-      <c r="E14" s="179"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="179"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="179"/>
-      <c r="J14" s="179"/>
-      <c r="K14" s="179"/>
-      <c r="L14" s="179"/>
-      <c r="M14" s="180"/>
-      <c r="S14" s="178" t="s">
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="180"/>
+      <c r="M14" s="181"/>
+      <c r="S14" s="179" t="s">
         <v>214</v>
       </c>
-      <c r="T14" s="179"/>
-      <c r="U14" s="179"/>
-      <c r="V14" s="179"/>
-      <c r="W14" s="179"/>
-      <c r="X14" s="179"/>
-      <c r="Y14" s="179"/>
-      <c r="Z14" s="179"/>
-      <c r="AA14" s="179"/>
-      <c r="AB14" s="180"/>
+      <c r="T14" s="180"/>
+      <c r="U14" s="180"/>
+      <c r="V14" s="180"/>
+      <c r="W14" s="180"/>
+      <c r="X14" s="180"/>
+      <c r="Y14" s="180"/>
+      <c r="Z14" s="180"/>
+      <c r="AA14" s="180"/>
+      <c r="AB14" s="181"/>
     </row>
     <row r="15" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D15" s="177" t="s">
+      <c r="D15" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="177"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="177"/>
-      <c r="J15" s="177"/>
-      <c r="K15" s="177"/>
-      <c r="L15" s="177"/>
-      <c r="M15" s="177"/>
-      <c r="S15" s="177" t="s">
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="178"/>
+      <c r="K15" s="178"/>
+      <c r="L15" s="178"/>
+      <c r="M15" s="178"/>
+      <c r="S15" s="178" t="s">
         <v>140</v>
       </c>
-      <c r="T15" s="177"/>
-      <c r="U15" s="177"/>
-      <c r="V15" s="177"/>
-      <c r="W15" s="177"/>
-      <c r="X15" s="177"/>
-      <c r="Y15" s="177"/>
-      <c r="Z15" s="177"/>
-      <c r="AA15" s="177"/>
-      <c r="AB15" s="177"/>
+      <c r="T15" s="178"/>
+      <c r="U15" s="178"/>
+      <c r="V15" s="178"/>
+      <c r="W15" s="178"/>
+      <c r="X15" s="178"/>
+      <c r="Y15" s="178"/>
+      <c r="Z15" s="178"/>
+      <c r="AA15" s="178"/>
+      <c r="AB15" s="178"/>
     </row>
     <row r="16" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D16" s="177" t="s">
+      <c r="D16" s="178" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="177"/>
-      <c r="L16" s="177"/>
-      <c r="M16" s="177"/>
-      <c r="S16" s="177" t="s">
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="178"/>
+      <c r="K16" s="178"/>
+      <c r="L16" s="178"/>
+      <c r="M16" s="178"/>
+      <c r="S16" s="178" t="s">
         <v>141</v>
       </c>
-      <c r="T16" s="177"/>
-      <c r="U16" s="177"/>
-      <c r="V16" s="177"/>
-      <c r="W16" s="177"/>
-      <c r="X16" s="177"/>
-      <c r="Y16" s="177"/>
-      <c r="Z16" s="177"/>
-      <c r="AA16" s="177"/>
-      <c r="AB16" s="177"/>
+      <c r="T16" s="178"/>
+      <c r="U16" s="178"/>
+      <c r="V16" s="178"/>
+      <c r="W16" s="178"/>
+      <c r="X16" s="178"/>
+      <c r="Y16" s="178"/>
+      <c r="Z16" s="178"/>
+      <c r="AA16" s="178"/>
+      <c r="AB16" s="178"/>
     </row>
     <row r="17" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D17" s="177" t="s">
+      <c r="D17" s="178" t="s">
         <v>147</v>
       </c>
-      <c r="E17" s="177"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="177"/>
-      <c r="K17" s="177"/>
-      <c r="L17" s="177"/>
-      <c r="M17" s="177"/>
-      <c r="S17" s="177" t="s">
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="178"/>
+      <c r="K17" s="178"/>
+      <c r="L17" s="178"/>
+      <c r="M17" s="178"/>
+      <c r="S17" s="178" t="s">
         <v>142</v>
       </c>
-      <c r="T17" s="177"/>
-      <c r="U17" s="177"/>
-      <c r="V17" s="177"/>
-      <c r="W17" s="177"/>
-      <c r="X17" s="177"/>
-      <c r="Y17" s="177"/>
-      <c r="Z17" s="177"/>
-      <c r="AA17" s="177"/>
-      <c r="AB17" s="177"/>
+      <c r="T17" s="178"/>
+      <c r="U17" s="178"/>
+      <c r="V17" s="178"/>
+      <c r="W17" s="178"/>
+      <c r="X17" s="178"/>
+      <c r="Y17" s="178"/>
+      <c r="Z17" s="178"/>
+      <c r="AA17" s="178"/>
+      <c r="AB17" s="178"/>
     </row>
     <row r="18" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D18" s="177" t="s">
+      <c r="D18" s="178" t="s">
         <v>148</v>
       </c>
-      <c r="E18" s="177"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="177"/>
-      <c r="K18" s="177"/>
-      <c r="L18" s="177"/>
-      <c r="M18" s="177"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="178"/>
+      <c r="K18" s="178"/>
+      <c r="L18" s="178"/>
+      <c r="M18" s="178"/>
     </row>
     <row r="19" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D19" s="177" t="s">
+      <c r="D19" s="178" t="s">
         <v>149</v>
       </c>
-      <c r="E19" s="177"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="177"/>
-      <c r="J19" s="177"/>
-      <c r="K19" s="177"/>
-      <c r="L19" s="177"/>
-      <c r="M19" s="177"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="178"/>
+      <c r="K19" s="178"/>
+      <c r="L19" s="178"/>
+      <c r="M19" s="178"/>
     </row>
     <row r="20" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D20" s="177" t="s">
+      <c r="D20" s="178" t="s">
         <v>150</v>
       </c>
-      <c r="E20" s="177"/>
-      <c r="F20" s="177"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="177"/>
-      <c r="J20" s="177"/>
-      <c r="K20" s="177"/>
-      <c r="L20" s="177"/>
-      <c r="M20" s="177"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="178"/>
+      <c r="K20" s="178"/>
+      <c r="L20" s="178"/>
+      <c r="M20" s="178"/>
     </row>
     <row r="21" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D21" s="177" t="s">
+      <c r="D21" s="178" t="s">
         <v>151</v>
       </c>
-      <c r="E21" s="177"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="177"/>
-      <c r="J21" s="177"/>
-      <c r="K21" s="177"/>
-      <c r="L21" s="177"/>
-      <c r="M21" s="177"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="178"/>
+      <c r="K21" s="178"/>
+      <c r="L21" s="178"/>
+      <c r="M21" s="178"/>
     </row>
     <row r="22" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D22" s="177" t="s">
+      <c r="D22" s="178" t="s">
         <v>152</v>
       </c>
-      <c r="E22" s="177"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="177"/>
-      <c r="J22" s="177"/>
-      <c r="K22" s="177"/>
-      <c r="L22" s="177"/>
-      <c r="M22" s="177"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="178"/>
+      <c r="K22" s="178"/>
+      <c r="L22" s="178"/>
+      <c r="M22" s="178"/>
     </row>
     <row r="23" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D23" s="177" t="s">
+      <c r="D23" s="178" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="177"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="177"/>
-      <c r="I23" s="177"/>
-      <c r="J23" s="177"/>
-      <c r="K23" s="177"/>
-      <c r="L23" s="177"/>
-      <c r="M23" s="177"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="178"/>
+      <c r="K23" s="178"/>
+      <c r="L23" s="178"/>
+      <c r="M23" s="178"/>
     </row>
     <row r="24" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D24" s="177" t="s">
+      <c r="D24" s="178" t="s">
         <v>154</v>
       </c>
-      <c r="E24" s="177"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="177"/>
-      <c r="J24" s="177"/>
-      <c r="K24" s="177"/>
-      <c r="L24" s="177"/>
-      <c r="M24" s="177"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="178"/>
+      <c r="K24" s="178"/>
+      <c r="L24" s="178"/>
+      <c r="M24" s="178"/>
     </row>
     <row r="25" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D25" s="177" t="s">
+      <c r="D25" s="178" t="s">
         <v>155</v>
       </c>
-      <c r="E25" s="177"/>
-      <c r="F25" s="177"/>
-      <c r="G25" s="177"/>
-      <c r="H25" s="177"/>
-      <c r="I25" s="177"/>
-      <c r="J25" s="177"/>
-      <c r="K25" s="177"/>
-      <c r="L25" s="177"/>
-      <c r="M25" s="177"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="178"/>
+      <c r="H25" s="178"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="178"/>
+      <c r="K25" s="178"/>
+      <c r="L25" s="178"/>
+      <c r="M25" s="178"/>
     </row>
     <row r="26" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D26" s="177" t="s">
+      <c r="D26" s="178" t="s">
         <v>156</v>
       </c>
-      <c r="E26" s="177"/>
-      <c r="F26" s="177"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="177"/>
-      <c r="J26" s="177"/>
-      <c r="K26" s="177"/>
-      <c r="L26" s="177"/>
-      <c r="M26" s="177"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="178"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="178"/>
+      <c r="K26" s="178"/>
+      <c r="L26" s="178"/>
+      <c r="M26" s="178"/>
     </row>
     <row r="27" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D27" s="177" t="s">
+      <c r="D27" s="178" t="s">
         <v>157</v>
       </c>
-      <c r="E27" s="177"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="177"/>
-      <c r="J27" s="177"/>
-      <c r="K27" s="177"/>
-      <c r="L27" s="177"/>
-      <c r="M27" s="177"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="178"/>
+      <c r="K27" s="178"/>
+      <c r="L27" s="178"/>
+      <c r="M27" s="178"/>
     </row>
     <row r="28" spans="4:28" x14ac:dyDescent="0.15">
-      <c r="D28" s="177" t="s">
+      <c r="D28" s="178" t="s">
         <v>158</v>
       </c>
-      <c r="E28" s="177"/>
-      <c r="F28" s="177"/>
-      <c r="G28" s="177"/>
-      <c r="H28" s="177"/>
-      <c r="I28" s="177"/>
-      <c r="J28" s="177"/>
-      <c r="K28" s="177"/>
-      <c r="L28" s="177"/>
-      <c r="M28" s="177"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="178"/>
+      <c r="K28" s="178"/>
+      <c r="L28" s="178"/>
+      <c r="M28" s="178"/>
     </row>
     <row r="33" spans="4:42" x14ac:dyDescent="0.15">
-      <c r="S33" s="181" t="s">
+      <c r="S33" s="182" t="s">
         <v>216</v>
       </c>
-      <c r="T33" s="181"/>
-      <c r="U33" s="181"/>
-      <c r="V33" s="181"/>
-      <c r="W33" s="181"/>
-      <c r="X33" s="181"/>
-      <c r="Y33" s="181"/>
-      <c r="Z33" s="181"/>
-      <c r="AA33" s="181"/>
-      <c r="AB33" s="181"/>
-      <c r="AG33" s="181" t="s">
+      <c r="T33" s="182"/>
+      <c r="U33" s="182"/>
+      <c r="V33" s="182"/>
+      <c r="W33" s="182"/>
+      <c r="X33" s="182"/>
+      <c r="Y33" s="182"/>
+      <c r="Z33" s="182"/>
+      <c r="AA33" s="182"/>
+      <c r="AB33" s="182"/>
+      <c r="AG33" s="182" t="s">
         <v>167</v>
       </c>
-      <c r="AH33" s="181"/>
-      <c r="AI33" s="181"/>
-      <c r="AJ33" s="181"/>
-      <c r="AK33" s="181"/>
-      <c r="AL33" s="181"/>
-      <c r="AM33" s="181"/>
-      <c r="AN33" s="181"/>
-      <c r="AO33" s="181"/>
-      <c r="AP33" s="181"/>
+      <c r="AH33" s="182"/>
+      <c r="AI33" s="182"/>
+      <c r="AJ33" s="182"/>
+      <c r="AK33" s="182"/>
+      <c r="AL33" s="182"/>
+      <c r="AM33" s="182"/>
+      <c r="AN33" s="182"/>
+      <c r="AO33" s="182"/>
+      <c r="AP33" s="182"/>
     </row>
     <row r="34" spans="4:42" x14ac:dyDescent="0.15">
-      <c r="S34" s="178" t="s">
+      <c r="S34" s="179" t="s">
         <v>215</v>
       </c>
-      <c r="T34" s="179"/>
-      <c r="U34" s="179"/>
-      <c r="V34" s="179"/>
-      <c r="W34" s="179"/>
-      <c r="X34" s="179"/>
-      <c r="Y34" s="179"/>
-      <c r="Z34" s="179"/>
-      <c r="AA34" s="179"/>
-      <c r="AB34" s="180"/>
-      <c r="AG34" s="178" t="s">
+      <c r="T34" s="180"/>
+      <c r="U34" s="180"/>
+      <c r="V34" s="180"/>
+      <c r="W34" s="180"/>
+      <c r="X34" s="180"/>
+      <c r="Y34" s="180"/>
+      <c r="Z34" s="180"/>
+      <c r="AA34" s="180"/>
+      <c r="AB34" s="181"/>
+      <c r="AG34" s="179" t="s">
         <v>215</v>
       </c>
-      <c r="AH34" s="179"/>
-      <c r="AI34" s="179"/>
-      <c r="AJ34" s="179"/>
-      <c r="AK34" s="179"/>
-      <c r="AL34" s="179"/>
-      <c r="AM34" s="179"/>
-      <c r="AN34" s="179"/>
-      <c r="AO34" s="179"/>
-      <c r="AP34" s="180"/>
+      <c r="AH34" s="180"/>
+      <c r="AI34" s="180"/>
+      <c r="AJ34" s="180"/>
+      <c r="AK34" s="180"/>
+      <c r="AL34" s="180"/>
+      <c r="AM34" s="180"/>
+      <c r="AN34" s="180"/>
+      <c r="AO34" s="180"/>
+      <c r="AP34" s="181"/>
     </row>
     <row r="35" spans="4:42" x14ac:dyDescent="0.15">
-      <c r="S35" s="177" t="s">
+      <c r="S35" s="178" t="s">
         <v>77</v>
       </c>
-      <c r="T35" s="177"/>
-      <c r="U35" s="177"/>
-      <c r="V35" s="177"/>
-      <c r="W35" s="177"/>
-      <c r="X35" s="177"/>
-      <c r="Y35" s="177"/>
-      <c r="Z35" s="177"/>
-      <c r="AA35" s="177"/>
-      <c r="AB35" s="177"/>
-      <c r="AG35" s="177" t="s">
+      <c r="T35" s="178"/>
+      <c r="U35" s="178"/>
+      <c r="V35" s="178"/>
+      <c r="W35" s="178"/>
+      <c r="X35" s="178"/>
+      <c r="Y35" s="178"/>
+      <c r="Z35" s="178"/>
+      <c r="AA35" s="178"/>
+      <c r="AB35" s="178"/>
+      <c r="AG35" s="178" t="s">
         <v>169</v>
       </c>
-      <c r="AH35" s="177"/>
-      <c r="AI35" s="177"/>
-      <c r="AJ35" s="177"/>
-      <c r="AK35" s="177"/>
-      <c r="AL35" s="177"/>
-      <c r="AM35" s="177"/>
-      <c r="AN35" s="177"/>
-      <c r="AO35" s="177"/>
-      <c r="AP35" s="177"/>
+      <c r="AH35" s="178"/>
+      <c r="AI35" s="178"/>
+      <c r="AJ35" s="178"/>
+      <c r="AK35" s="178"/>
+      <c r="AL35" s="178"/>
+      <c r="AM35" s="178"/>
+      <c r="AN35" s="178"/>
+      <c r="AO35" s="178"/>
+      <c r="AP35" s="178"/>
     </row>
     <row r="36" spans="4:42" x14ac:dyDescent="0.15">
-      <c r="S36" s="177" t="s">
+      <c r="S36" s="178" t="s">
         <v>82</v>
       </c>
-      <c r="T36" s="177"/>
-      <c r="U36" s="177"/>
-      <c r="V36" s="177"/>
-      <c r="W36" s="177"/>
-      <c r="X36" s="177"/>
-      <c r="Y36" s="177"/>
-      <c r="Z36" s="177"/>
-      <c r="AA36" s="177"/>
-      <c r="AB36" s="177"/>
-      <c r="AG36" s="177" t="s">
+      <c r="T36" s="178"/>
+      <c r="U36" s="178"/>
+      <c r="V36" s="178"/>
+      <c r="W36" s="178"/>
+      <c r="X36" s="178"/>
+      <c r="Y36" s="178"/>
+      <c r="Z36" s="178"/>
+      <c r="AA36" s="178"/>
+      <c r="AB36" s="178"/>
+      <c r="AG36" s="178" t="s">
         <v>170</v>
       </c>
-      <c r="AH36" s="177"/>
-      <c r="AI36" s="177"/>
-      <c r="AJ36" s="177"/>
-      <c r="AK36" s="177"/>
-      <c r="AL36" s="177"/>
-      <c r="AM36" s="177"/>
-      <c r="AN36" s="177"/>
-      <c r="AO36" s="177"/>
-      <c r="AP36" s="177"/>
+      <c r="AH36" s="178"/>
+      <c r="AI36" s="178"/>
+      <c r="AJ36" s="178"/>
+      <c r="AK36" s="178"/>
+      <c r="AL36" s="178"/>
+      <c r="AM36" s="178"/>
+      <c r="AN36" s="178"/>
+      <c r="AO36" s="178"/>
+      <c r="AP36" s="178"/>
     </row>
     <row r="37" spans="4:42" x14ac:dyDescent="0.15">
-      <c r="S37" s="177" t="s">
+      <c r="S37" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="T37" s="177"/>
-      <c r="U37" s="177"/>
-      <c r="V37" s="177"/>
-      <c r="W37" s="177"/>
-      <c r="X37" s="177"/>
-      <c r="Y37" s="177"/>
-      <c r="Z37" s="177"/>
-      <c r="AA37" s="177"/>
-      <c r="AB37" s="177"/>
-      <c r="AG37" s="177"/>
-      <c r="AH37" s="177"/>
-      <c r="AI37" s="177"/>
-      <c r="AJ37" s="177"/>
-      <c r="AK37" s="177"/>
-      <c r="AL37" s="177"/>
-      <c r="AM37" s="177"/>
-      <c r="AN37" s="177"/>
-      <c r="AO37" s="177"/>
-      <c r="AP37" s="177"/>
+      <c r="T37" s="178"/>
+      <c r="U37" s="178"/>
+      <c r="V37" s="178"/>
+      <c r="W37" s="178"/>
+      <c r="X37" s="178"/>
+      <c r="Y37" s="178"/>
+      <c r="Z37" s="178"/>
+      <c r="AA37" s="178"/>
+      <c r="AB37" s="178"/>
+      <c r="AG37" s="178"/>
+      <c r="AH37" s="178"/>
+      <c r="AI37" s="178"/>
+      <c r="AJ37" s="178"/>
+      <c r="AK37" s="178"/>
+      <c r="AL37" s="178"/>
+      <c r="AM37" s="178"/>
+      <c r="AN37" s="178"/>
+      <c r="AO37" s="178"/>
+      <c r="AP37" s="178"/>
     </row>
     <row r="38" spans="4:42" x14ac:dyDescent="0.15">
-      <c r="S38" s="177" t="s">
+      <c r="S38" s="178" t="s">
         <v>72</v>
       </c>
-      <c r="T38" s="177"/>
-      <c r="U38" s="177"/>
-      <c r="V38" s="177"/>
-      <c r="W38" s="177"/>
-      <c r="X38" s="177"/>
-      <c r="Y38" s="177"/>
-      <c r="Z38" s="177"/>
-      <c r="AA38" s="177"/>
-      <c r="AB38" s="177"/>
-      <c r="AG38" s="177"/>
-      <c r="AH38" s="177"/>
-      <c r="AI38" s="177"/>
-      <c r="AJ38" s="177"/>
-      <c r="AK38" s="177"/>
-      <c r="AL38" s="177"/>
-      <c r="AM38" s="177"/>
-      <c r="AN38" s="177"/>
-      <c r="AO38" s="177"/>
-      <c r="AP38" s="177"/>
+      <c r="T38" s="178"/>
+      <c r="U38" s="178"/>
+      <c r="V38" s="178"/>
+      <c r="W38" s="178"/>
+      <c r="X38" s="178"/>
+      <c r="Y38" s="178"/>
+      <c r="Z38" s="178"/>
+      <c r="AA38" s="178"/>
+      <c r="AB38" s="178"/>
+      <c r="AG38" s="178"/>
+      <c r="AH38" s="178"/>
+      <c r="AI38" s="178"/>
+      <c r="AJ38" s="178"/>
+      <c r="AK38" s="178"/>
+      <c r="AL38" s="178"/>
+      <c r="AM38" s="178"/>
+      <c r="AN38" s="178"/>
+      <c r="AO38" s="178"/>
+      <c r="AP38" s="178"/>
     </row>
     <row r="39" spans="4:42" x14ac:dyDescent="0.15">
-      <c r="S39" s="177" t="s">
+      <c r="S39" s="178" t="s">
         <v>84</v>
       </c>
-      <c r="T39" s="177"/>
-      <c r="U39" s="177"/>
-      <c r="V39" s="177"/>
-      <c r="W39" s="177"/>
-      <c r="X39" s="177"/>
-      <c r="Y39" s="177"/>
-      <c r="Z39" s="177"/>
-      <c r="AA39" s="177"/>
-      <c r="AB39" s="177"/>
-      <c r="AG39" s="177"/>
-      <c r="AH39" s="177"/>
-      <c r="AI39" s="177"/>
-      <c r="AJ39" s="177"/>
-      <c r="AK39" s="177"/>
-      <c r="AL39" s="177"/>
-      <c r="AM39" s="177"/>
-      <c r="AN39" s="177"/>
-      <c r="AO39" s="177"/>
-      <c r="AP39" s="177"/>
+      <c r="T39" s="178"/>
+      <c r="U39" s="178"/>
+      <c r="V39" s="178"/>
+      <c r="W39" s="178"/>
+      <c r="X39" s="178"/>
+      <c r="Y39" s="178"/>
+      <c r="Z39" s="178"/>
+      <c r="AA39" s="178"/>
+      <c r="AB39" s="178"/>
+      <c r="AG39" s="178"/>
+      <c r="AH39" s="178"/>
+      <c r="AI39" s="178"/>
+      <c r="AJ39" s="178"/>
+      <c r="AK39" s="178"/>
+      <c r="AL39" s="178"/>
+      <c r="AM39" s="178"/>
+      <c r="AN39" s="178"/>
+      <c r="AO39" s="178"/>
+      <c r="AP39" s="178"/>
     </row>
     <row r="40" spans="4:42" x14ac:dyDescent="0.15">
-      <c r="S40" s="177" t="s">
+      <c r="S40" s="178" t="s">
         <v>118</v>
       </c>
-      <c r="T40" s="177"/>
-      <c r="U40" s="177"/>
-      <c r="V40" s="177"/>
-      <c r="W40" s="177"/>
-      <c r="X40" s="177"/>
-      <c r="Y40" s="177"/>
-      <c r="Z40" s="177"/>
-      <c r="AA40" s="177"/>
-      <c r="AB40" s="177"/>
-      <c r="AG40" s="177"/>
-      <c r="AH40" s="177"/>
-      <c r="AI40" s="177"/>
-      <c r="AJ40" s="177"/>
-      <c r="AK40" s="177"/>
-      <c r="AL40" s="177"/>
-      <c r="AM40" s="177"/>
-      <c r="AN40" s="177"/>
-      <c r="AO40" s="177"/>
-      <c r="AP40" s="177"/>
+      <c r="T40" s="178"/>
+      <c r="U40" s="178"/>
+      <c r="V40" s="178"/>
+      <c r="W40" s="178"/>
+      <c r="X40" s="178"/>
+      <c r="Y40" s="178"/>
+      <c r="Z40" s="178"/>
+      <c r="AA40" s="178"/>
+      <c r="AB40" s="178"/>
+      <c r="AG40" s="178"/>
+      <c r="AH40" s="178"/>
+      <c r="AI40" s="178"/>
+      <c r="AJ40" s="178"/>
+      <c r="AK40" s="178"/>
+      <c r="AL40" s="178"/>
+      <c r="AM40" s="178"/>
+      <c r="AN40" s="178"/>
+      <c r="AO40" s="178"/>
+      <c r="AP40" s="178"/>
     </row>
     <row r="45" spans="4:42" x14ac:dyDescent="0.15">
-      <c r="D45" s="181" t="s">
+      <c r="D45" s="182" t="s">
         <v>174</v>
       </c>
-      <c r="E45" s="181"/>
-      <c r="F45" s="181"/>
-      <c r="G45" s="181"/>
-      <c r="H45" s="181"/>
-      <c r="I45" s="181"/>
-      <c r="J45" s="181"/>
-      <c r="K45" s="181"/>
-      <c r="L45" s="181"/>
-      <c r="M45" s="181"/>
+      <c r="E45" s="182"/>
+      <c r="F45" s="182"/>
+      <c r="G45" s="182"/>
+      <c r="H45" s="182"/>
+      <c r="I45" s="182"/>
+      <c r="J45" s="182"/>
+      <c r="K45" s="182"/>
+      <c r="L45" s="182"/>
+      <c r="M45" s="182"/>
     </row>
     <row r="46" spans="4:42" x14ac:dyDescent="0.15">
-      <c r="D46" s="178" t="s">
+      <c r="D46" s="179" t="s">
         <v>215</v>
       </c>
-      <c r="E46" s="179"/>
-      <c r="F46" s="179"/>
-      <c r="G46" s="179"/>
-      <c r="H46" s="179"/>
-      <c r="I46" s="179"/>
-      <c r="J46" s="179"/>
-      <c r="K46" s="179"/>
-      <c r="L46" s="179"/>
-      <c r="M46" s="180"/>
+      <c r="E46" s="180"/>
+      <c r="F46" s="180"/>
+      <c r="G46" s="180"/>
+      <c r="H46" s="180"/>
+      <c r="I46" s="180"/>
+      <c r="J46" s="180"/>
+      <c r="K46" s="180"/>
+      <c r="L46" s="180"/>
+      <c r="M46" s="181"/>
     </row>
     <row r="47" spans="4:42" x14ac:dyDescent="0.15">
-      <c r="D47" s="177" t="s">
+      <c r="D47" s="178" t="s">
         <v>177</v>
       </c>
-      <c r="E47" s="177"/>
-      <c r="F47" s="177"/>
-      <c r="G47" s="177"/>
-      <c r="H47" s="177"/>
-      <c r="I47" s="177"/>
-      <c r="J47" s="177"/>
-      <c r="K47" s="177"/>
-      <c r="L47" s="177"/>
-      <c r="M47" s="177"/>
+      <c r="E47" s="178"/>
+      <c r="F47" s="178"/>
+      <c r="G47" s="178"/>
+      <c r="H47" s="178"/>
+      <c r="I47" s="178"/>
+      <c r="J47" s="178"/>
+      <c r="K47" s="178"/>
+      <c r="L47" s="178"/>
+      <c r="M47" s="178"/>
     </row>
     <row r="48" spans="4:42" x14ac:dyDescent="0.15">
-      <c r="D48" s="177" t="s">
+      <c r="D48" s="178" t="s">
         <v>178</v>
       </c>
-      <c r="E48" s="177"/>
-      <c r="F48" s="177"/>
-      <c r="G48" s="177"/>
-      <c r="H48" s="177"/>
-      <c r="I48" s="177"/>
-      <c r="J48" s="177"/>
-      <c r="K48" s="177"/>
-      <c r="L48" s="177"/>
-      <c r="M48" s="177"/>
+      <c r="E48" s="178"/>
+      <c r="F48" s="178"/>
+      <c r="G48" s="178"/>
+      <c r="H48" s="178"/>
+      <c r="I48" s="178"/>
+      <c r="J48" s="178"/>
+      <c r="K48" s="178"/>
+      <c r="L48" s="178"/>
+      <c r="M48" s="178"/>
     </row>
     <row r="49" spans="4:84" x14ac:dyDescent="0.15">
-      <c r="D49" s="177" t="s">
+      <c r="D49" s="178" t="s">
         <v>179</v>
       </c>
-      <c r="E49" s="177"/>
-      <c r="F49" s="177"/>
-      <c r="G49" s="177"/>
-      <c r="H49" s="177"/>
-      <c r="I49" s="177"/>
-      <c r="J49" s="177"/>
-      <c r="K49" s="177"/>
-      <c r="L49" s="177"/>
-      <c r="M49" s="177"/>
+      <c r="E49" s="178"/>
+      <c r="F49" s="178"/>
+      <c r="G49" s="178"/>
+      <c r="H49" s="178"/>
+      <c r="I49" s="178"/>
+      <c r="J49" s="178"/>
+      <c r="K49" s="178"/>
+      <c r="L49" s="178"/>
+      <c r="M49" s="178"/>
     </row>
     <row r="50" spans="4:84" x14ac:dyDescent="0.15">
-      <c r="D50" s="177" t="s">
+      <c r="D50" s="178" t="s">
         <v>180</v>
       </c>
-      <c r="E50" s="177"/>
-      <c r="F50" s="177"/>
-      <c r="G50" s="177"/>
-      <c r="H50" s="177"/>
-      <c r="I50" s="177"/>
-      <c r="J50" s="177"/>
-      <c r="K50" s="177"/>
-      <c r="L50" s="177"/>
-      <c r="M50" s="177"/>
+      <c r="E50" s="178"/>
+      <c r="F50" s="178"/>
+      <c r="G50" s="178"/>
+      <c r="H50" s="178"/>
+      <c r="I50" s="178"/>
+      <c r="J50" s="178"/>
+      <c r="K50" s="178"/>
+      <c r="L50" s="178"/>
+      <c r="M50" s="178"/>
     </row>
     <row r="51" spans="4:84" x14ac:dyDescent="0.15">
-      <c r="D51" s="177" t="s">
+      <c r="D51" s="178" t="s">
         <v>175</v>
       </c>
-      <c r="E51" s="177"/>
-      <c r="F51" s="177"/>
-      <c r="G51" s="177"/>
-      <c r="H51" s="177"/>
-      <c r="I51" s="177"/>
-      <c r="J51" s="177"/>
-      <c r="K51" s="177"/>
-      <c r="L51" s="177"/>
-      <c r="M51" s="177"/>
+      <c r="E51" s="178"/>
+      <c r="F51" s="178"/>
+      <c r="G51" s="178"/>
+      <c r="H51" s="178"/>
+      <c r="I51" s="178"/>
+      <c r="J51" s="178"/>
+      <c r="K51" s="178"/>
+      <c r="L51" s="178"/>
+      <c r="M51" s="178"/>
     </row>
     <row r="52" spans="4:84" x14ac:dyDescent="0.15">
-      <c r="D52" s="177" t="s">
+      <c r="D52" s="178" t="s">
         <v>181</v>
       </c>
-      <c r="E52" s="177"/>
-      <c r="F52" s="177"/>
-      <c r="G52" s="177"/>
-      <c r="H52" s="177"/>
-      <c r="I52" s="177"/>
-      <c r="J52" s="177"/>
-      <c r="K52" s="177"/>
-      <c r="L52" s="177"/>
-      <c r="M52" s="177"/>
+      <c r="E52" s="178"/>
+      <c r="F52" s="178"/>
+      <c r="G52" s="178"/>
+      <c r="H52" s="178"/>
+      <c r="I52" s="178"/>
+      <c r="J52" s="178"/>
+      <c r="K52" s="178"/>
+      <c r="L52" s="178"/>
+      <c r="M52" s="178"/>
     </row>
     <row r="53" spans="4:84" x14ac:dyDescent="0.15">
-      <c r="D53" s="177" t="s">
+      <c r="D53" s="178" t="s">
         <v>182</v>
       </c>
-      <c r="E53" s="177"/>
-      <c r="F53" s="177"/>
-      <c r="G53" s="177"/>
-      <c r="H53" s="177"/>
-      <c r="I53" s="177"/>
-      <c r="J53" s="177"/>
-      <c r="K53" s="177"/>
-      <c r="L53" s="177"/>
-      <c r="M53" s="177"/>
+      <c r="E53" s="178"/>
+      <c r="F53" s="178"/>
+      <c r="G53" s="178"/>
+      <c r="H53" s="178"/>
+      <c r="I53" s="178"/>
+      <c r="J53" s="178"/>
+      <c r="K53" s="178"/>
+      <c r="L53" s="178"/>
+      <c r="M53" s="178"/>
     </row>
     <row r="54" spans="4:84" x14ac:dyDescent="0.15">
-      <c r="D54" s="177" t="s">
+      <c r="D54" s="178" t="s">
         <v>183</v>
       </c>
-      <c r="E54" s="177"/>
-      <c r="F54" s="177"/>
-      <c r="G54" s="177"/>
-      <c r="H54" s="177"/>
-      <c r="I54" s="177"/>
-      <c r="J54" s="177"/>
-      <c r="K54" s="177"/>
-      <c r="L54" s="177"/>
-      <c r="M54" s="177"/>
+      <c r="E54" s="178"/>
+      <c r="F54" s="178"/>
+      <c r="G54" s="178"/>
+      <c r="H54" s="178"/>
+      <c r="I54" s="178"/>
+      <c r="J54" s="178"/>
+      <c r="K54" s="178"/>
+      <c r="L54" s="178"/>
+      <c r="M54" s="178"/>
     </row>
     <row r="55" spans="4:84" x14ac:dyDescent="0.15">
-      <c r="D55" s="177" t="s">
+      <c r="D55" s="178" t="s">
         <v>184</v>
       </c>
-      <c r="E55" s="177"/>
-      <c r="F55" s="177"/>
-      <c r="G55" s="177"/>
-      <c r="H55" s="177"/>
-      <c r="I55" s="177"/>
-      <c r="J55" s="177"/>
-      <c r="K55" s="177"/>
-      <c r="L55" s="177"/>
-      <c r="M55" s="177"/>
+      <c r="E55" s="178"/>
+      <c r="F55" s="178"/>
+      <c r="G55" s="178"/>
+      <c r="H55" s="178"/>
+      <c r="I55" s="178"/>
+      <c r="J55" s="178"/>
+      <c r="K55" s="178"/>
+      <c r="L55" s="178"/>
+      <c r="M55" s="178"/>
     </row>
     <row r="56" spans="4:84" x14ac:dyDescent="0.15">
-      <c r="D56" s="177" t="s">
+      <c r="D56" s="178" t="s">
         <v>185</v>
       </c>
-      <c r="E56" s="177"/>
-      <c r="F56" s="177"/>
-      <c r="G56" s="177"/>
-      <c r="H56" s="177"/>
-      <c r="I56" s="177"/>
-      <c r="J56" s="177"/>
-      <c r="K56" s="177"/>
-      <c r="L56" s="177"/>
-      <c r="M56" s="177"/>
+      <c r="E56" s="178"/>
+      <c r="F56" s="178"/>
+      <c r="G56" s="178"/>
+      <c r="H56" s="178"/>
+      <c r="I56" s="178"/>
+      <c r="J56" s="178"/>
+      <c r="K56" s="178"/>
+      <c r="L56" s="178"/>
+      <c r="M56" s="178"/>
     </row>
     <row r="61" spans="4:84" x14ac:dyDescent="0.15">
       <c r="E61" s="62" t="s">
@@ -35876,31 +35943,31 @@
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="158" t="s">
+      <c r="C2" s="159" t="s">
         <v>380</v>
       </c>
-      <c r="D2" s="158"/>
+      <c r="D2" s="159"/>
       <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="156" t="s">
+      <c r="F2" s="157" t="s">
         <v>380</v>
       </c>
-      <c r="G2" s="132"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="127">
+      <c r="L2" s="128">
         <v>1</v>
       </c>
-      <c r="M2" s="127"/>
+      <c r="M2" s="128"/>
       <c r="AA2" s="5" t="s">
         <v>53</v>
       </c>
@@ -35951,20 +36018,20 @@
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="159" t="s">
+      <c r="I3" s="160" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="129"/>
+      <c r="J3" s="130"/>
       <c r="AA3" s="5" t="s">
         <v>54</v>
       </c>
@@ -36016,135 +36083,135 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="137" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="141" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="151" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="154" t="s">
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="147" t="s">
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="140" t="s">
+      <c r="O6" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140" t="s">
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="148" t="s">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="149"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="148" t="s">
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="138" t="s">
+      <c r="X6" s="151"/>
+      <c r="Y6" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="138" t="s">
+      <c r="Z6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="140" t="s">
+      <c r="AA6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="140" t="s">
+      <c r="AB6" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="140" t="s">
+      <c r="AC6" s="141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="144"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -36175,11 +36242,11 @@
       <c r="X7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
@@ -36997,31 +37064,31 @@
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="160" t="s">
+      <c r="C2" s="161" t="s">
         <v>235</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="160" t="s">
+      <c r="F2" s="161" t="s">
         <v>235</v>
       </c>
-      <c r="G2" s="132"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="127">
+      <c r="L2" s="128">
         <v>1</v>
       </c>
-      <c r="M2" s="127"/>
+      <c r="M2" s="128"/>
       <c r="AA2" s="5" t="s">
         <v>53</v>
       </c>
@@ -37072,22 +37139,22 @@
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="161" t="s">
+      <c r="C3" s="162" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="127"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="162" t="s">
+      <c r="I3" s="163" t="s">
         <v>188</v>
       </c>
-      <c r="J3" s="129"/>
+      <c r="J3" s="130"/>
       <c r="AA3" s="5" t="s">
         <v>54</v>
       </c>
@@ -37139,135 +37206,135 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="137" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="141" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="151" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="154" t="s">
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="147" t="s">
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="140" t="s">
+      <c r="O6" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140" t="s">
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="148" t="s">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="149"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="148" t="s">
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="138" t="s">
+      <c r="X6" s="151"/>
+      <c r="Y6" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="138" t="s">
+      <c r="Z6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="140" t="s">
+      <c r="AA6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="140" t="s">
+      <c r="AB6" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="140" t="s">
+      <c r="AC6" s="141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="144"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -37298,11 +37365,11 @@
       <c r="X7" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
     </row>
     <row r="8" spans="1:48" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="51"/>
@@ -38002,31 +38069,31 @@
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="156" t="s">
+      <c r="C2" s="157" t="s">
         <v>358</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="156" t="s">
+      <c r="F2" s="157" t="s">
         <v>358</v>
       </c>
-      <c r="G2" s="132"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>325</v>
       </c>
-      <c r="J2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="127">
+      <c r="L2" s="128">
         <v>1</v>
       </c>
-      <c r="M2" s="127"/>
+      <c r="M2" s="128"/>
       <c r="Z2" s="5" t="s">
         <v>53</v>
       </c>
@@ -38080,22 +38147,22 @@
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="161" t="s">
+      <c r="C3" s="162" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="127"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="157" t="s">
+      <c r="I3" s="158" t="s">
         <v>359</v>
       </c>
-      <c r="J3" s="129"/>
+      <c r="J3" s="130"/>
       <c r="Z3" s="5" t="s">
         <v>54</v>
       </c>
@@ -38148,135 +38215,135 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="137" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="141" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="151" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="154" t="s">
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="147" t="s">
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="140" t="s">
+      <c r="O6" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140" t="s">
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="148" t="s">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="149"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="148" t="s">
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="138" t="s">
+      <c r="X6" s="151"/>
+      <c r="Y6" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="138" t="s">
+      <c r="Z6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="140" t="s">
+      <c r="AA6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="140" t="s">
+      <c r="AB6" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="140" t="s">
+      <c r="AC6" s="141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="144"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -38307,11 +38374,11 @@
       <c r="X7" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
     </row>
     <row r="8" spans="1:48" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="51"/>
@@ -39040,31 +39107,31 @@
       <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="163" t="s">
+      <c r="C2" s="164" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="132"/>
+      <c r="D2" s="133"/>
       <c r="E2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="163" t="s">
+      <c r="F2" s="164" t="s">
         <v>212</v>
       </c>
-      <c r="G2" s="132"/>
+      <c r="G2" s="133"/>
       <c r="H2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="127" t="s">
+      <c r="I2" s="128" t="s">
         <v>325</v>
       </c>
-      <c r="J2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="K2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="127">
+      <c r="L2" s="128">
         <v>1</v>
       </c>
-      <c r="M2" s="127"/>
+      <c r="M2" s="128"/>
       <c r="Z2" s="5" t="s">
         <v>53</v>
       </c>
@@ -39118,22 +39185,22 @@
       <c r="B3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="161" t="s">
+      <c r="C3" s="162" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="127"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="162" t="s">
+      <c r="I3" s="163" t="s">
         <v>213</v>
       </c>
-      <c r="J3" s="129"/>
+      <c r="J3" s="130"/>
       <c r="Z3" s="5" t="s">
         <v>54</v>
       </c>
@@ -39186,135 +39253,135 @@
       </c>
     </row>
     <row r="5" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="137" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="141" t="s">
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="141"/>
-      <c r="N5" s="142"/>
-      <c r="O5" s="151" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="152"/>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="154" t="s">
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="154"/>
+      <c r="Y5" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="147" t="s">
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="AB5" s="147"/>
-      <c r="AC5" s="147"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
     </row>
     <row r="6" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="145" t="s">
+      <c r="K6" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="135" t="s">
+      <c r="L6" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="140" t="s">
+      <c r="O6" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="140"/>
-      <c r="Q6" s="140" t="s">
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="140"/>
-      <c r="S6" s="140"/>
-      <c r="T6" s="148" t="s">
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="149"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="148" t="s">
+      <c r="U6" s="150"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="138" t="s">
+      <c r="X6" s="151"/>
+      <c r="Y6" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="Z6" s="138" t="s">
+      <c r="Z6" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="140" t="s">
+      <c r="AA6" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="140" t="s">
+      <c r="AB6" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="140" t="s">
+      <c r="AC6" s="141" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="144"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
       <c r="O7" s="9" t="s">
         <v>17</v>
       </c>
@@ -39345,11 +39412,11 @@
       <c r="X7" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="Y7" s="139"/>
-      <c r="Z7" s="139"/>
-      <c r="AA7" s="140"/>
-      <c r="AB7" s="140"/>
-      <c r="AC7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
     </row>
     <row r="8" spans="1:48" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="51"/>
